--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dffee9ff865d46fc/문서/balance-sim-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40645C5-AAA4-4DF0-A068-35F28E6B7F51}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Class</t>
   </si>
@@ -51,37 +51,59 @@
     <t>Crit_Dmg</t>
   </si>
   <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Skill_Name</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>Damage_Coef</t>
+  </si>
+  <si>
+    <t>Cast_Time</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Max_MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP_Regen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_BackAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Cooldown_Reduction</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>Mage</t>
-  </si>
-  <si>
-    <t>Skill_Name</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>Damage_Coef</t>
-  </si>
-  <si>
-    <t>Cast_Time</t>
-  </si>
-  <si>
-    <t>Is_BackAttack</t>
-  </si>
-  <si>
-    <t>Strike</t>
-  </si>
-  <si>
-    <t>Whirlwind</t>
-  </si>
-  <si>
-    <t>Fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back_Attack_Bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP_Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D184F5D-6990-44B8-B294-B7BF030B2AB3}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,9 +499,10 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,12 +516,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -512,22 +544,40 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="C3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D3">
         <v>2.5</v>
       </c>
       <c r="E3">
         <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -538,10 +588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3466A46A-EC8B-4D22-80CF-A386BF6AD3E9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,32 +604,38 @@
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -593,13 +649,19 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -613,13 +675,19 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -632,6 +700,12 @@
       </c>
       <c r="F4" t="b">
         <v>0</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dffee9ff865d46fc/문서/balance-sim-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40645C5-AAA4-4DF0-A068-35F28E6B7F51}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{513A877E-F43C-4C2E-83ED-14F178D2A7EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Skills" sheetId="2" r:id="rId2"/>
+    <sheet name="User_Growth" sheetId="3" r:id="rId3"/>
+    <sheet name="Monster_Template" sheetId="4" r:id="rId4"/>
+    <sheet name="Dungeon_List" sheetId="5" r:id="rId5"/>
+    <sheet name="Payment_Grade" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Class</t>
   </si>
@@ -104,6 +108,93 @@
   <si>
     <t>HitCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Base_HP</t>
+  </si>
+  <si>
+    <t>Base_DEF</t>
+  </si>
+  <si>
+    <t>Monster_Type</t>
+  </si>
+  <si>
+    <t>ATK_Ratio</t>
+  </si>
+  <si>
+    <t>DEF_Ratio</t>
+  </si>
+  <si>
+    <t>HP_Ratio</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>일반 몬스터</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>정예 몬스터</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>보스 몬스터</t>
+  </si>
+  <si>
+    <t>Dungeon_Name</t>
+  </si>
+  <si>
+    <t>Unlock_Level</t>
+  </si>
+  <si>
+    <t>Monster_Count</t>
+  </si>
+  <si>
+    <t>Target_Survival_Ratio</t>
+  </si>
+  <si>
+    <t>던전 1-1</t>
+  </si>
+  <si>
+    <t>던전 1-5 (보스)</t>
+  </si>
+  <si>
+    <t>던전 2-1</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Stat_Multiplier</t>
+  </si>
+  <si>
+    <t>Free (무과금)</t>
+  </si>
+  <si>
+    <t>기준점</t>
+  </si>
+  <si>
+    <t>Light (소과금)</t>
+  </si>
+  <si>
+    <t>20% 더 강함</t>
+  </si>
+  <si>
+    <t>Heavy (헤비과금)</t>
+  </si>
+  <si>
+    <t>60% 더 강함</t>
   </si>
 </sst>
 </file>
@@ -168,6 +259,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3466A46A-EC8B-4D22-80CF-A386BF6AD3E9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -712,4 +807,449 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4179CA-B36B-40D7-88CD-175199DC459C}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>8000</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+      <c r="D8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>12000</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>16000</v>
+      </c>
+      <c r="C10">
+        <v>1600</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>20000</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>25000</v>
+      </c>
+      <c r="C12">
+        <v>2500</v>
+      </c>
+      <c r="D12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>30000</v>
+      </c>
+      <c r="C13">
+        <v>3000</v>
+      </c>
+      <c r="D13">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFD64CD-3E85-4C8C-870F-7F2817BDDABD}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.83</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F08C3C-1852-42F2-94C2-45ACBE6D6C0C}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19572678-7996-43A0-9E1D-CA49ED46B417}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>1.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dffee9ff865d46fc/문서/balance-sim-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{513A877E-F43C-4C2E-83ED-14F178D2A7EB}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2004845D-A746-450E-8178-8FDF83499DAB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Class</t>
   </si>
@@ -164,15 +164,6 @@
     <t>Target_Survival_Ratio</t>
   </si>
   <si>
-    <t>던전 1-1</t>
-  </si>
-  <si>
-    <t>던전 1-5 (보스)</t>
-  </si>
-  <si>
-    <t>던전 2-1</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -188,13 +179,43 @@
     <t>Light (소과금)</t>
   </si>
   <si>
-    <t>20% 더 강함</t>
-  </si>
-  <si>
     <t>Heavy (헤비과금)</t>
   </si>
   <si>
-    <t>60% 더 강함</t>
+    <t>던전 1-1 (튜토리얼)</t>
+  </si>
+  <si>
+    <t>던전 1-5 (중간보스)</t>
+  </si>
+  <si>
+    <t>던전 1-10 (챕터보스)</t>
+  </si>
+  <si>
+    <t>던전 2-1 (초반 파밍)</t>
+  </si>
+  <si>
+    <t>던전 2-5 (정예구간)</t>
+  </si>
+  <si>
+    <t>던전 2-10 (챕터보스)</t>
+  </si>
+  <si>
+    <t>던전 3-1 (중반 진입)</t>
+  </si>
+  <si>
+    <t>던전 3-5 (고난이도)</t>
+  </si>
+  <si>
+    <t>던전 3-10 (레이드)</t>
+  </si>
+  <si>
+    <t>던전 4-1 (만렙 파밍)</t>
+  </si>
+  <si>
+    <t>패스권/월정액 유저 (2.5배)</t>
+  </si>
+  <si>
+    <t>랭커급 유저 (10배)</t>
   </si>
 </sst>
 </file>
@@ -1100,15 +1121,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F08C3C-1852-42F2-94C2-45ACBE6D6C0C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -1134,7 +1155,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1146,41 +1167,160 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1.1000000000000001</v>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1194,22 +1334,22 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -1217,35 +1357,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="142" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2004845D-A746-450E-8178-8FDF83499DAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFD64CD-3E85-4C8C-870F-7F2817BDDABD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19572678-7996-43A0-9E1D-CA49ED46B417}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="142" documentId="8_{36CC9FE2-E01E-4670-9F41-57868CC51831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2004845D-A746-450E-8178-8FDF83499DAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{FC8F9C43-5969-4C59-9C85-2B788E8831E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFD64CD-3E85-4C8C-870F-7F2817BDDABD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1123,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F08C3C-1852-42F2-94C2-45ACBE6D6C0C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dffee9ff865d46fc/문서/balance-sim-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFD7B0-23E6-4E93-8487-CCFCC350B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5CFFD7B0-23E6-4E93-8487-CCFCC350B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99ABAA6-A1E4-4D1F-8EAB-1E4ACCF2FBFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Job" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Skill_Data" sheetId="3" r:id="rId3"/>
     <sheet name="Monster_Book" sheetId="4" r:id="rId4"/>
     <sheet name="Dungeon_Config" sheetId="5" r:id="rId5"/>
+    <sheet name="Payment_Grade" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>Class_ID</t>
   </si>
@@ -252,6 +253,33 @@
   </si>
   <si>
     <t>Ancient Sky Ruins</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Stat_Multiplier</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>무과금 (기준)</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>소과금 (월정액+패스)</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>헤비과금 (랭커)</t>
   </si>
 </sst>
 </file>
@@ -317,11 +345,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -783,7 +812,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1159,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1494,7 +1523,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1675,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1813,4 +1842,69 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E953E9-FC61-48C0-BA58-ECEC6B074476}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dffee9ff865d46fc/문서/balance-sim-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5CFFD7B0-23E6-4E93-8487-CCFCC350B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99ABAA6-A1E4-4D1F-8EAB-1E4ACCF2FBFA}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5CFFD7B0-23E6-4E93-8487-CCFCC350B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498E3B44-93F7-422C-B9DC-4ABBC5BAE3B4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Job" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>Class_ID</t>
   </si>
@@ -280,13 +280,16 @@
   </si>
   <si>
     <t>헤비과금 (랭커)</t>
+  </si>
+  <si>
+    <t>Crit_Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +307,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -345,12 +357,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -366,6 +382,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,33 +691,36 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -722,8 +745,11 @@
       <c r="H2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -748,8 +774,11 @@
       <c r="H3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -774,8 +803,11 @@
       <c r="H4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -799,11 +831,15 @@
       </c>
       <c r="H5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1848,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E953E9-FC61-48C0-BA58-ECEC6B074476}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/BalanceSheets.xlsx
+++ b/BalanceSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dffee9ff865d46fc/문서/balance-sim-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5CFFD7B0-23E6-4E93-8487-CCFCC350B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498E3B44-93F7-422C-B9DC-4ABBC5BAE3B4}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{5CFFD7B0-23E6-4E93-8487-CCFCC350B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76BF1152-E01D-4AA1-8B2B-5A41406D8987}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_Job" sheetId="1" r:id="rId1"/>
@@ -283,6 +283,7 @@
   </si>
   <si>
     <t>Crit_Rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -677,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1558,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1693,7 @@
         <v>60</v>
       </c>
       <c r="E5">
-        <v>80000000</v>
+        <v>50000000</v>
       </c>
       <c r="F5">
         <v>8000</v>
@@ -1718,7 +1719,7 @@
         <v>60</v>
       </c>
       <c r="E6">
-        <v>250000000</v>
+        <v>100000000</v>
       </c>
       <c r="F6">
         <v>12000</v>
